--- a/curation/draft/package12/R12_BC_New.xlsx
+++ b/curation/draft/package12/R12_BC_New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72EB9F2-7629-41F8-B0AC-EB18A2428F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B0DF4-A577-4BE4-8177-BBDCC8FB5078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{18A89C13-B655-9647-BB64-C0D5BA3E4A4E}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{18A89C13-B655-9647-BB64-C0D5BA3E4A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_Test_Occurrence" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -807,6 +807,7 @@
       <c r="Q3" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82525" xr:uid="{A18708BB-08F2-AE46-93CB-2760128E01E1}"/>
     <hyperlink ref="N3" r:id="rId2" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{25888F80-64D0-6D4B-AB77-FD03C2A2334D}"/>
@@ -820,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE42099-8DE8-453A-A33E-EB2AA5BBECE5}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1027,27 +1028,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="115dd23f2b72febc1d2fc1b60a8090db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43aaa9d63816c92389865776c2b79fa6" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -1304,26 +1284,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A000D3F-3F90-45B5-9D7C-D2C7DE326891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98045FF-7E65-40A4-902F-DCD465F8E01D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FF024F8-5909-4030-ADA0-1E89C002B995}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1340,4 +1322,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98045FF-7E65-40A4-902F-DCD465F8E01D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A000D3F-3F90-45B5-9D7C-D2C7DE326891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>